--- a/kerntabellen/gemeente_logo.xlsx
+++ b/kerntabellen/gemeente_logo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\gebiedsniveaus\definities_afgeleiden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33E94B-BC02-4AC5-A815-C1468646BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="16590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1040,9 +1041,6 @@
     <t>gemeente onbekend</t>
   </si>
   <si>
-    <t>Logo onbekend</t>
-  </si>
-  <si>
     <t>gemeente onbekend (Vlaanderen)</t>
   </si>
   <si>
@@ -1056,12 +1054,15 @@
   </si>
   <si>
     <t>gemeente</t>
+  </si>
+  <si>
+    <t>Buiten Vlaanderen en Brussel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1406,18 +1407,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1429,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12041</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44083</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>44084</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>44085</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45068</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>72042</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>72043</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41002</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24001</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11001</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23105</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>73001</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38002</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21001</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11002</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34002</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>37020</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13001</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71002</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23002</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43002</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34003</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13002</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13003</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31003</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13004</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23003</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24007</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24008</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>71004</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>42003</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24009</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23009</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>46003</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24011</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>73006</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31004</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>72003</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11004</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12005</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11005</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>24014</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>73009</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12007</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11007</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24016</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45059</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11008</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11009</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>35002</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>72004</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>31005</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>21004</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>42004</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>31006</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>35029</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>38008</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44012</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>34009</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>41011</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>42006</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>37002</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13006</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44013</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>71011</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>24020</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>32003</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>23016</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>72041</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23098</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12009</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11013</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>43005</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21009</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>41082</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11016</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21005</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>21006</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>44019</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>23023</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21008</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>44020</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13008</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>24028</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>71016</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>44021</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>41018</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>71017</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>35005</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>24137</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23024</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23025</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>13010</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24033</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>41024</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>71020</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23027</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>71069</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>42008</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>72037</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>34013</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>71022</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>72038</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>73022</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12014</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11018</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>24038</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>13011</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>13012</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>71024</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23032</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>13013</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>73028</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>41027</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>71070</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>33039</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24041</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23033</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>73032</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24043</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>36006</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13014</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>45062</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>72039</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>32006</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>11021</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24045</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13016</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>35006</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>33011</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>36007</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>36008</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>31012</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>21010</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11022</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>23038</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11023</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>23039</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>43007</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>13017</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24048</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>72018</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>45060</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>31043</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>32010</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>21011</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>38014</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>11024</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>32011</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24054</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24055</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>73040</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>34022</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>23099</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>46013</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>34023</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>13053</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>42010</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>73042</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24059</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>33040</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>42011</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>41034</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>36010</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>34025</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>23104</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>71034</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24062</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>36011</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>23044</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>12021</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>45063</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>13019</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>23100</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11025</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24133</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>44034</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>46014</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>72020</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>23045</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>32030</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>24066</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>71037</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>45064</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>72021</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>73107</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>23047</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>43010</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11057</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>12025</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>13021</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>23050</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>44040</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>34027</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>23052</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>44043</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13023</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>33016</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>37007</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>35011</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>44045</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13025</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>36012</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>11029</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>44048</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11030</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>71045</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>38016</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>12026</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>41048</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13029</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>35013</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>44052</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>31022</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>37010</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>23060</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>45035</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>35014</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>21002</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>24086</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>13031</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>23062</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>72030</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>23064</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>37011</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>33021</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>12029</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11035</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13035</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13036</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>73066</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13037</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>36015</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>45041</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>23097</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>24094</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>37012</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11037</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>21015</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11038</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>24134</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11039</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11040</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>21003</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>23101</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>21013</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>46020</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>21012</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>21014</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>12035</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>21018</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>43014</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>41063</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>44064</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>46021</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>23077</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>21019</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>71053</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>34043</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11044</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>36019</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>23081</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>46024</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>46025</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>23086</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>24104</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>71057</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>37015</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>24135</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>24107</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>73083</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>31033</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>24109</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>13040</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>21016</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>38025</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>23088</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>33041</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>73109</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>13044</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>21007</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>13046</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>42023</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>44073</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>34040</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>21017</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>73098</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>23102</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>33029</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>13049</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>42025</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>34041</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>23103</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>42026</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>37017</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>11050</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>12040</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>37018</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>11052</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>45061</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>11053</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>11054</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>23094</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>31040</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>42028</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>43018</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>23096</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>11055</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>71066</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>33037</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>41081</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>24130</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>31042</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>44081</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>71067</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>45065</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>34042</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>11056</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>99999</v>
       </c>
@@ -5906,35 +5907,35 @@
         <v>99</v>
       </c>
       <c r="D321" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>99991</v>
       </c>
       <c r="B322" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C322">
         <v>91</v>
       </c>
       <c r="D322" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>99992</v>
       </c>
       <c r="B323" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C323">
         <v>92</v>
       </c>
       <c r="D323" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_logo.xlsx
+++ b/kerntabellen/gemeente_logo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33E94B-BC02-4AC5-A815-C1468646BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621D1DAC-7F84-4E59-AAC8-096F084A8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="16590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32520" yWindow="-1845" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="346">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -1057,6 +1057,12 @@
   </si>
   <si>
     <t>Buiten Vlaanderen en Brussel</t>
+  </si>
+  <si>
+    <t>niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren</t>
   </si>
 </sst>
 </file>
@@ -1408,15 +1414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="D321" sqref="D321"/>
+      <selection activeCell="M315" sqref="M315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>342</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12041</v>
       </c>
@@ -1444,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>44083</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>44084</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>44085</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45068</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>72042</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>72043</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41002</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>24001</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11001</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>23105</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>73001</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>38002</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21001</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11002</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34002</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>37020</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13001</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>71002</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>23002</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>43002</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>34003</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13002</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13003</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31003</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13004</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23003</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24007</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24008</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>71004</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>42003</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24009</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>23009</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>46003</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24011</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>73006</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31004</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>72003</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>11004</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12005</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11005</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24014</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>73009</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12007</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11007</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24016</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45059</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>11008</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>11009</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>35002</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>72004</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>31005</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>21004</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>42004</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>31006</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>35029</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>38008</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>44012</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>34009</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>41011</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>42006</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>37002</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>13006</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>44013</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>71011</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>24020</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>32003</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>23016</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>72041</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23098</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12009</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>11013</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>43005</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>21009</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>41082</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>11016</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>21005</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>21006</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>44019</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>23023</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>21008</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>44020</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>13008</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>24028</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>71016</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>44021</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>41018</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>71017</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>35005</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>24137</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>23024</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>23025</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>13010</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>24033</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>41024</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>71020</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>23027</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>71069</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>42008</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>72037</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>34013</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>71022</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>72038</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>73022</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>12014</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11018</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>24038</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>13011</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>13012</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>71024</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>23032</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>13013</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>73028</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>41027</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>71070</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>33039</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24041</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>23033</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>73032</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24043</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>36006</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13014</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>45062</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>72039</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>32006</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>11021</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24045</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>13016</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>35006</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>33011</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>36007</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>36008</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>31012</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>21010</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>11022</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>23038</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11023</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>23039</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>43007</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>13017</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>24048</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>72018</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>45060</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>31043</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>32010</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>21011</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>38014</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>11024</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>32011</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>24054</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>24055</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>73040</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>34022</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>23099</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>46013</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>34023</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>13053</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>42010</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>73042</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>24059</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>33040</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>42011</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>41034</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>36010</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>34025</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>23104</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>71034</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>24062</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>36011</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>23044</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>12021</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>45063</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>13019</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>23100</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>11025</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>24133</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>44034</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>46014</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>72020</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>23045</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>32030</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>24066</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>71037</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>45064</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>72021</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>73107</v>
       </c>
@@ -4048,7 +4054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>23047</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>43010</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>11057</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>12025</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>13021</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>23050</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>44040</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>34027</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>23052</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>44043</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>13023</v>
       </c>
@@ -4202,7 +4208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>33016</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>37007</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>35011</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>44045</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>13025</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>36012</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>11029</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>44048</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11030</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>71045</v>
       </c>
@@ -4342,7 +4348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>38016</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>12026</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>41048</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>13029</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>35013</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>44052</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>31022</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>37010</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>23060</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>45035</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>35014</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>21002</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>24086</v>
       </c>
@@ -4524,7 +4530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>13031</v>
       </c>
@@ -4538,7 +4544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>23062</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>72030</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>23064</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>37011</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>33021</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>12029</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>11035</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>13035</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>13036</v>
       </c>
@@ -4664,7 +4670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>73066</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>13037</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>36015</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>45041</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>23097</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>24094</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>37012</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11037</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>21015</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>11038</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>24134</v>
       </c>
@@ -4818,7 +4824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>11039</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>11040</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>21003</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>23101</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>21013</v>
       </c>
@@ -4888,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>46020</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>21012</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>21014</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>12035</v>
       </c>
@@ -4944,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>21018</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>43014</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>41063</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>44064</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>46021</v>
       </c>
@@ -5014,7 +5020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>23077</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>21019</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>71053</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>34043</v>
       </c>
@@ -5070,7 +5076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>11044</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>36019</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>23081</v>
       </c>
@@ -5112,7 +5118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>46024</v>
       </c>
@@ -5126,7 +5132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>46025</v>
       </c>
@@ -5140,7 +5146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>23086</v>
       </c>
@@ -5154,7 +5160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>24104</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>71057</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>37015</v>
       </c>
@@ -5196,7 +5202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>24135</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>24107</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>73083</v>
       </c>
@@ -5238,7 +5244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>31033</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>24109</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>13040</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>21016</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>38025</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>23088</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>33041</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>73109</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>13044</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>21007</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>13046</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>42023</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>44073</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>34040</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>21017</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>73098</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>23102</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>33029</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>13049</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>42025</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>34041</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>23103</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>42026</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>37017</v>
       </c>
@@ -5574,7 +5580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>11050</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>12040</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>37018</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>11052</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>45061</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>11053</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>11054</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>23094</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>31040</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>42028</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>43018</v>
       </c>
@@ -5728,7 +5734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>23096</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>11055</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>71066</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>33037</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>41081</v>
       </c>
@@ -5798,7 +5804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>24130</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>31042</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>44081</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>71067</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>45065</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>34042</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>11056</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>99999</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>99991</v>
       </c>
@@ -5924,7 +5930,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>99992</v>
       </c>
@@ -5936,6 +5942,20 @@
       </c>
       <c r="D323" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>99993</v>
+      </c>
+      <c r="B324" t="s">
+        <v>344</v>
+      </c>
+      <c r="C324">
+        <v>93</v>
+      </c>
+      <c r="D324" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_logo.xlsx
+++ b/kerntabellen/gemeente_logo.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621D1DAC-7F84-4E59-AAC8-096F084A8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EFA4D3-B6E2-446E-BFEC-A738483B257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="-1845" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="329">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -180,18 +194,12 @@
     <t>Bever</t>
   </si>
   <si>
-    <t>Beveren</t>
-  </si>
-  <si>
     <t>Logo-Waasland vzw</t>
   </si>
   <si>
     <t>Bierbeek</t>
   </si>
   <si>
-    <t>Bilzen</t>
-  </si>
-  <si>
     <t>Blankenberge</t>
   </si>
   <si>
@@ -210,15 +218,9 @@
     <t>Boortmeerbeek</t>
   </si>
   <si>
-    <t>Borgloon</t>
-  </si>
-  <si>
     <t>Bornem</t>
   </si>
   <si>
-    <t>Borsbeek</t>
-  </si>
-  <si>
     <t>Boutersem</t>
   </si>
   <si>
@@ -255,9 +257,6 @@
     <t>De Panne</t>
   </si>
   <si>
-    <t>De Pinte</t>
-  </si>
-  <si>
     <t>Deerlijk</t>
   </si>
   <si>
@@ -321,9 +320,6 @@
     <t>Evergem</t>
   </si>
   <si>
-    <t>Galmaarden</t>
-  </si>
-  <si>
     <t>Ganshoren</t>
   </si>
   <si>
@@ -354,9 +350,6 @@
     <t>Glabbeek</t>
   </si>
   <si>
-    <t>Gooik</t>
-  </si>
-  <si>
     <t>Grimbergen</t>
   </si>
   <si>
@@ -375,9 +368,6 @@
     <t>Halle</t>
   </si>
   <si>
-    <t>Ham</t>
-  </si>
-  <si>
     <t>Hamme</t>
   </si>
   <si>
@@ -414,9 +404,6 @@
     <t>Herk-de-Stad</t>
   </si>
   <si>
-    <t>Herne</t>
-  </si>
-  <si>
     <t>Herselt</t>
   </si>
   <si>
@@ -438,9 +425,6 @@
     <t>Hoeilaart</t>
   </si>
   <si>
-    <t>Hoeselt</t>
-  </si>
-  <si>
     <t>Holsbeek</t>
   </si>
   <si>
@@ -537,18 +521,12 @@
     <t>Kortenberg</t>
   </si>
   <si>
-    <t>Kortessem</t>
-  </si>
-  <si>
     <t>Kortrijk</t>
   </si>
   <si>
     <t>Kraainem</t>
   </si>
   <si>
-    <t>Kruibeke</t>
-  </si>
-  <si>
     <t>Kuurne</t>
   </si>
   <si>
@@ -660,33 +638,21 @@
     <t>Meise</t>
   </si>
   <si>
-    <t>Melle</t>
-  </si>
-  <si>
     <t>Menen</t>
   </si>
   <si>
     <t>Merchtem</t>
   </si>
   <si>
-    <t>Merelbeke</t>
-  </si>
-  <si>
     <t>Merksplas</t>
   </si>
   <si>
     <t>Mesen</t>
   </si>
   <si>
-    <t>Meulebeke</t>
-  </si>
-  <si>
     <t>Middelkerke</t>
   </si>
   <si>
-    <t>Moerbeke</t>
-  </si>
-  <si>
     <t>Mol</t>
   </si>
   <si>
@@ -696,9 +662,6 @@
     <t>Mortsel</t>
   </si>
   <si>
-    <t>Nazareth</t>
-  </si>
-  <si>
     <t>Niel</t>
   </si>
   <si>
@@ -792,9 +755,6 @@
     <t>Rotselaar</t>
   </si>
   <si>
-    <t>Ruiselede</t>
-  </si>
-  <si>
     <t>Rumst</t>
   </si>
   <si>
@@ -882,9 +842,6 @@
     <t>Tervuren</t>
   </si>
   <si>
-    <t>Tessenderlo</t>
-  </si>
-  <si>
     <t>Tielt</t>
   </si>
   <si>
@@ -894,9 +851,6 @@
     <t>Tienen</t>
   </si>
   <si>
-    <t>Tongeren</t>
-  </si>
-  <si>
     <t>Torhout</t>
   </si>
   <si>
@@ -933,9 +887,6 @@
     <t>Waasmunster</t>
   </si>
   <si>
-    <t>Wachtebeke</t>
-  </si>
-  <si>
     <t>Waregem</t>
   </si>
   <si>
@@ -1035,18 +986,6 @@
     <t>Zwevegem</t>
   </si>
   <si>
-    <t>Zwijndrecht</t>
-  </si>
-  <si>
-    <t>gemeente onbekend</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Brussel)</t>
-  </si>
-  <si>
     <t>Logo onbekend (Vlaanderen)</t>
   </si>
   <si>
@@ -1059,10 +998,34 @@
     <t>Buiten Vlaanderen en Brussel</t>
   </si>
   <si>
-    <t>niet te lokaliseren</t>
-  </si>
-  <si>
     <t>Niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>Beveren-Kruibeke-Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Bilzen-Hoeselt</t>
+  </si>
+  <si>
+    <t>Merelbeke-Melle</t>
+  </si>
+  <si>
+    <t>Nazareth-De Pinte</t>
+  </si>
+  <si>
+    <t>Pajottegem</t>
+  </si>
+  <si>
+    <t>Tessenderlo-Ham</t>
+  </si>
+  <si>
+    <t>Tongeren-Borgloon</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Brussel</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
 </sst>
 </file>
@@ -1413,18 +1376,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D324"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E25D3A-2F6F-413F-B975-99A857252EF1}">
+  <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="M315" sqref="M315"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267:D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1438,10 +1401,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12041</v>
+        <v>11001</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -1452,192 +1415,192 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>44083</v>
+        <v>11002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>44084</v>
+        <v>11004</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>44085</v>
+        <v>11005</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>45068</v>
+        <v>11008</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>72042</v>
+        <v>11009</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>72043</v>
+        <v>11013</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>41002</v>
+        <v>11016</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>24001</v>
+        <v>11018</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11001</v>
+        <v>11021</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>23105</v>
+        <v>11022</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>73001</v>
+        <v>11023</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>38002</v>
+        <v>11024</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>21001</v>
+        <v>11025</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11002</v>
+        <v>11029</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1648,220 +1611,220 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>34002</v>
+        <v>11030</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>37020</v>
+        <v>11035</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>13001</v>
+        <v>11037</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>71002</v>
+        <v>11038</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>23002</v>
+        <v>11039</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>43002</v>
+        <v>11040</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>34003</v>
+        <v>11044</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>13002</v>
+        <v>11050</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>13003</v>
+        <v>11052</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>31003</v>
+        <v>11053</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>13004</v>
+        <v>11054</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>23003</v>
+        <v>11055</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24007</v>
+        <v>11057</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24008</v>
+        <v>12002</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>71004</v>
+        <v>12005</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>12002</v>
+        <v>12007</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -1872,458 +1835,458 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>42003</v>
+        <v>12009</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
         <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>24009</v>
+        <v>12014</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>23009</v>
+        <v>12021</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>46003</v>
+        <v>12025</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>24011</v>
+        <v>12026</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>73006</v>
+        <v>12029</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>31004</v>
+        <v>12035</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>72003</v>
+        <v>12040</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11004</v>
+        <v>12041</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12005</v>
+        <v>13001</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11005</v>
+        <v>13002</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>24014</v>
+        <v>13003</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>73009</v>
+        <v>13004</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>12007</v>
+        <v>13006</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>11007</v>
+        <v>13008</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>24016</v>
+        <v>13010</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45059</v>
+        <v>13011</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>11008</v>
+        <v>13012</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11009</v>
+        <v>13013</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>35002</v>
+        <v>13014</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>72004</v>
+        <v>13016</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>31005</v>
+        <v>13017</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>21004</v>
+        <v>13019</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>42004</v>
+        <v>13021</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>31006</v>
+        <v>13023</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>35029</v>
+        <v>13025</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>38008</v>
+        <v>13029</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>44012</v>
+        <v>13031</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>34009</v>
+        <v>13035</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>41011</v>
+        <v>13036</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>42006</v>
+        <v>13037</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>37002</v>
+        <v>13040</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>13006</v>
+        <v>13044</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -2334,150 +2297,150 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>44013</v>
+        <v>13046</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>71011</v>
+        <v>13049</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="C67">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>24020</v>
+        <v>13053</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>32003</v>
+        <v>21001</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>23016</v>
+        <v>21002</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>72041</v>
+        <v>21003</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>23098</v>
+        <v>21004</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>12009</v>
+        <v>21005</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>11013</v>
+        <v>21006</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>43005</v>
+        <v>21007</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>21009</v>
+        <v>21008</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2488,38 +2451,38 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>41082</v>
+        <v>21009</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>11016</v>
+        <v>21010</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>21005</v>
+        <v>21011</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -2530,10 +2493,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>21006</v>
+        <v>21012</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2544,38 +2507,38 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>44019</v>
+        <v>21013</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>23023</v>
+        <v>21014</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>21008</v>
+        <v>21015</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2586,136 +2549,136 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>44020</v>
+        <v>21016</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>13008</v>
+        <v>21017</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>24028</v>
+        <v>21018</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>71016</v>
+        <v>21019</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>44021</v>
+        <v>23002</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>41018</v>
+        <v>23003</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>71017</v>
+        <v>23009</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>35005</v>
+        <v>23016</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>24137</v>
+        <v>23025</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23024</v>
+        <v>23027</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93">
         <v>14</v>
@@ -2726,10 +2689,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23025</v>
+        <v>23033</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C94">
         <v>14</v>
@@ -2740,66 +2703,66 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>13010</v>
+        <v>23038</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>24033</v>
+        <v>23039</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>41024</v>
+        <v>23044</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>71020</v>
+        <v>23045</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23027</v>
+        <v>23047</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C99">
         <v>14</v>
@@ -2810,192 +2773,192 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>71069</v>
+        <v>23050</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>42008</v>
+        <v>23052</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="C101">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>72037</v>
+        <v>23060</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>34013</v>
+        <v>23062</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>71022</v>
+        <v>23064</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>72038</v>
+        <v>23077</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>73022</v>
+        <v>23081</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="C106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>12014</v>
+        <v>23086</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>11018</v>
+        <v>23088</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24038</v>
+        <v>23094</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>13011</v>
+        <v>23096</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>13012</v>
+        <v>23097</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>71024</v>
+        <v>23098</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>23032</v>
+        <v>23099</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C113">
         <v>14</v>
@@ -3006,94 +2969,94 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>13013</v>
+        <v>23100</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>73028</v>
+        <v>23101</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="C115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>41027</v>
+        <v>23102</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>71070</v>
+        <v>23103</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>33039</v>
+        <v>23104</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>24041</v>
+        <v>23105</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>23033</v>
+        <v>23106</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="C120">
         <v>14</v>
@@ -3104,24 +3067,24 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>73032</v>
+        <v>24001</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>24043</v>
+        <v>24007</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -3132,94 +3095,94 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>36006</v>
+        <v>24008</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>13014</v>
+        <v>24009</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>45062</v>
+        <v>24011</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>72039</v>
+        <v>24014</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="C126">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>32006</v>
+        <v>24016</v>
       </c>
       <c r="B127" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>11021</v>
+        <v>24020</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24045</v>
+        <v>24028</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C129">
         <v>10</v>
@@ -3230,122 +3193,122 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>13016</v>
+        <v>24033</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>35006</v>
+        <v>24038</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>33011</v>
+        <v>24041</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>36007</v>
+        <v>24043</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>36008</v>
+        <v>24045</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>31012</v>
+        <v>24048</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>21010</v>
+        <v>24054</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>11022</v>
+        <v>24055</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>23038</v>
+        <v>24059</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C138">
         <v>10</v>
@@ -3356,388 +3319,388 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>11023</v>
+        <v>24062</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>23039</v>
+        <v>24066</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C140">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>43007</v>
+        <v>24086</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>13017</v>
+        <v>24094</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>24048</v>
+        <v>24104</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>72018</v>
+        <v>24107</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="C144">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>45060</v>
+        <v>24109</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>31043</v>
+        <v>24130</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>32010</v>
+        <v>24133</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>21011</v>
+        <v>24134</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>38014</v>
+        <v>24135</v>
       </c>
       <c r="B149" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>11024</v>
+        <v>24137</v>
       </c>
       <c r="B150" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>32011</v>
+        <v>31003</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>24054</v>
+        <v>31004</v>
       </c>
       <c r="B152" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>24055</v>
+        <v>31005</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="C153">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>73040</v>
+        <v>31006</v>
       </c>
       <c r="B154" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="C154">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>34022</v>
+        <v>31012</v>
       </c>
       <c r="B155" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>23099</v>
+        <v>31022</v>
       </c>
       <c r="B156" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C156">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>46013</v>
+        <v>31033</v>
       </c>
       <c r="B157" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="C157">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>34023</v>
+        <v>31040</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>13053</v>
+        <v>31042</v>
       </c>
       <c r="B159" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>42010</v>
+        <v>31043</v>
       </c>
       <c r="B160" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>73042</v>
+        <v>32003</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="C161">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>24059</v>
+        <v>32006</v>
       </c>
       <c r="B162" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C162">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>33040</v>
+        <v>32010</v>
       </c>
       <c r="B163" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>42011</v>
+        <v>32011</v>
       </c>
       <c r="B164" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>41034</v>
+        <v>32030</v>
       </c>
       <c r="B165" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>36010</v>
+        <v>33011</v>
       </c>
       <c r="B166" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C166">
         <v>9</v>
@@ -3748,10 +3711,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>34025</v>
+        <v>33016</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -3762,52 +3725,52 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>23104</v>
+        <v>33021</v>
       </c>
       <c r="B168" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="C168">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>71034</v>
+        <v>33029</v>
       </c>
       <c r="B169" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="C169">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>24062</v>
+        <v>33037</v>
       </c>
       <c r="B170" t="s">
-        <v>186</v>
+        <v>307</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>36011</v>
+        <v>33039</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="C171">
         <v>9</v>
@@ -3818,402 +3781,402 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>23044</v>
+        <v>33040</v>
       </c>
       <c r="B172" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C172">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>12021</v>
+        <v>33041</v>
       </c>
       <c r="B173" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>45063</v>
+        <v>34002</v>
       </c>
       <c r="B174" t="s">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>13019</v>
+        <v>34003</v>
       </c>
       <c r="B175" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="C175">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>23100</v>
+        <v>34009</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="C176">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>11025</v>
+        <v>34013</v>
       </c>
       <c r="B177" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>24133</v>
+        <v>34022</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>44034</v>
+        <v>34023</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>46014</v>
+        <v>34025</v>
       </c>
       <c r="B180" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>72020</v>
+        <v>34027</v>
       </c>
       <c r="B181" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C181">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>23045</v>
+        <v>34040</v>
       </c>
       <c r="B182" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="C182">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>32030</v>
+        <v>34041</v>
       </c>
       <c r="B183" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>24066</v>
+        <v>34042</v>
       </c>
       <c r="B184" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>71037</v>
+        <v>34043</v>
       </c>
       <c r="B185" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C185">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>45064</v>
+        <v>35002</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>72021</v>
+        <v>35005</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>73107</v>
+        <v>35006</v>
       </c>
       <c r="B188" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C188">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>23047</v>
+        <v>35011</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C189">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>43010</v>
+        <v>35013</v>
       </c>
       <c r="B190" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>11057</v>
+        <v>35014</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>12025</v>
+        <v>35029</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>13021</v>
+        <v>36006</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>23050</v>
+        <v>36007</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C194">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>44040</v>
+        <v>36008</v>
       </c>
       <c r="B195" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>34027</v>
+        <v>36010</v>
       </c>
       <c r="B196" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>23052</v>
+        <v>36011</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C197">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>44043</v>
+        <v>36012</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>13023</v>
+        <v>36015</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C199">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>33016</v>
+        <v>36019</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C200">
         <v>9</v>
@@ -4224,66 +4187,66 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>37007</v>
+        <v>37002</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="C201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>35011</v>
+        <v>37010</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>44045</v>
+        <v>37011</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>13025</v>
+        <v>37017</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>36012</v>
+        <v>37020</v>
       </c>
       <c r="B205" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>9</v>
@@ -4294,66 +4257,66 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>11029</v>
+        <v>37021</v>
       </c>
       <c r="B206" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>44048</v>
+        <v>37022</v>
       </c>
       <c r="B207" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>11030</v>
+        <v>38002</v>
       </c>
       <c r="B208" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="C208">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D208" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>71045</v>
+        <v>38008</v>
       </c>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="C209">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>38016</v>
+        <v>38014</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="C210">
         <v>11</v>
@@ -4364,360 +4327,360 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>12026</v>
+        <v>38016</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C211">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D211" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>41048</v>
+        <v>38025</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D212" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>13029</v>
+        <v>41002</v>
       </c>
       <c r="B213" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="C213">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>35013</v>
+        <v>41011</v>
       </c>
       <c r="B214" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>44052</v>
+        <v>41018</v>
       </c>
       <c r="B215" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="C215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>31022</v>
+        <v>41024</v>
       </c>
       <c r="B216" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>37010</v>
+        <v>41027</v>
       </c>
       <c r="B217" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C217">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>23060</v>
+        <v>41034</v>
       </c>
       <c r="B218" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C218">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>45035</v>
+        <v>41048</v>
       </c>
       <c r="B219" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>35014</v>
+        <v>41063</v>
       </c>
       <c r="B220" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C220">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>21002</v>
+        <v>41081</v>
       </c>
       <c r="B221" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>24086</v>
+        <v>41082</v>
       </c>
       <c r="B222" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>13031</v>
+        <v>42003</v>
       </c>
       <c r="B223" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="C223">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>23062</v>
+        <v>42004</v>
       </c>
       <c r="B224" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="C224">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>72030</v>
+        <v>42006</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="C225">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>23064</v>
+        <v>42008</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="C226">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>37011</v>
+        <v>42010</v>
       </c>
       <c r="B227" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="C227">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>33021</v>
+        <v>42011</v>
       </c>
       <c r="B228" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="C228">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>12029</v>
+        <v>42023</v>
       </c>
       <c r="B229" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C229">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>11035</v>
+        <v>42025</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>13035</v>
+        <v>42026</v>
       </c>
       <c r="B231" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="C231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>13036</v>
+        <v>42028</v>
       </c>
       <c r="B232" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>73066</v>
+        <v>43002</v>
       </c>
       <c r="B233" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C233">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>13037</v>
+        <v>43005</v>
       </c>
       <c r="B234" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="C234">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>36015</v>
+        <v>43007</v>
       </c>
       <c r="B235" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="C235">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>45041</v>
+        <v>43010</v>
       </c>
       <c r="B236" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -4728,248 +4691,248 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>23097</v>
+        <v>43014</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C237">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>24094</v>
+        <v>43018</v>
       </c>
       <c r="B238" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="C238">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>37012</v>
+        <v>44013</v>
       </c>
       <c r="B239" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="C239">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>11037</v>
+        <v>44019</v>
       </c>
       <c r="B240" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="C240">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>21015</v>
+        <v>44020</v>
       </c>
       <c r="B241" t="s">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>11038</v>
+        <v>44021</v>
       </c>
       <c r="B242" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="C242">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D242" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>24134</v>
+        <v>44052</v>
       </c>
       <c r="B243" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C243">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>11039</v>
+        <v>44064</v>
       </c>
       <c r="B244" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>11040</v>
+        <v>44081</v>
       </c>
       <c r="B245" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>21003</v>
+        <v>44083</v>
       </c>
       <c r="B246" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>23101</v>
+        <v>44084</v>
       </c>
       <c r="B247" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="C247">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>21013</v>
+        <v>44085</v>
       </c>
       <c r="B248" t="s">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>46020</v>
+        <v>44086</v>
       </c>
       <c r="B249" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="C249">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D249" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>21012</v>
+        <v>44087</v>
       </c>
       <c r="B250" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>21014</v>
+        <v>44088</v>
       </c>
       <c r="B251" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>12035</v>
+        <v>45035</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="C252">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>21018</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>43014</v>
+        <v>45059</v>
       </c>
       <c r="B254" t="s">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="C254">
         <v>5</v>
@@ -4980,10 +4943,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>41063</v>
+        <v>45060</v>
       </c>
       <c r="B255" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="C255">
         <v>5</v>
@@ -4994,10 +4957,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>44064</v>
+        <v>45061</v>
       </c>
       <c r="B256" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C256">
         <v>5</v>
@@ -5008,178 +4971,178 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>46021</v>
+        <v>45062</v>
       </c>
       <c r="B257" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="C257">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D257" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>23077</v>
+        <v>45063</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="C258">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D258" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>21019</v>
+        <v>45064</v>
       </c>
       <c r="B259" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>71053</v>
+        <v>45065</v>
       </c>
       <c r="B260" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="C260">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>34043</v>
+        <v>45068</v>
       </c>
       <c r="B261" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
       <c r="C261">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>11044</v>
+        <v>46020</v>
       </c>
       <c r="B262" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>36019</v>
+        <v>46021</v>
       </c>
       <c r="B263" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C263">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D263" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>23081</v>
+        <v>46024</v>
       </c>
       <c r="B264" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C264">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D264" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B265" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C265">
         <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>46025</v>
+        <v>46029</v>
       </c>
       <c r="B266" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
       <c r="C266">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>23086</v>
+        <v>46030</v>
       </c>
       <c r="B267" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C267">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D267" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>24104</v>
+        <v>71002</v>
       </c>
       <c r="B268" t="s">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="C268">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>71057</v>
+        <v>71004</v>
       </c>
       <c r="B269" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="C269">
         <v>13</v>
@@ -5190,52 +5153,52 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>37015</v>
+        <v>71011</v>
       </c>
       <c r="B270" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="C270">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D270" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>24135</v>
+        <v>71016</v>
       </c>
       <c r="B271" t="s">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="C271">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>24107</v>
+        <v>71017</v>
       </c>
       <c r="B272" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="C272">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>73083</v>
+        <v>71020</v>
       </c>
       <c r="B273" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="C273">
         <v>13</v>
@@ -5246,108 +5209,108 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>31033</v>
+        <v>71024</v>
       </c>
       <c r="B274" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>24109</v>
+        <v>71034</v>
       </c>
       <c r="B275" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="C275">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D275" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>13040</v>
+        <v>71037</v>
       </c>
       <c r="B276" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c r="C276">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>21016</v>
+        <v>71045</v>
       </c>
       <c r="B277" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C277">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D277" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>38025</v>
+        <v>71053</v>
       </c>
       <c r="B278" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C278">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D278" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>23088</v>
+        <v>71066</v>
       </c>
       <c r="B279" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C279">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D279" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>33041</v>
+        <v>71067</v>
       </c>
       <c r="B280" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C280">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>73109</v>
+        <v>71070</v>
       </c>
       <c r="B281" t="s">
-        <v>297</v>
+        <v>124</v>
       </c>
       <c r="C281">
         <v>13</v>
@@ -5358,108 +5321,108 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>13044</v>
+        <v>71071</v>
       </c>
       <c r="B282" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C282">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D282" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>21007</v>
+        <v>71072</v>
       </c>
       <c r="B283" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="C283">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D283" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>13046</v>
+        <v>72003</v>
       </c>
       <c r="B284" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="C284">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D284" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>42023</v>
+        <v>72004</v>
       </c>
       <c r="B285" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="C285">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>44073</v>
+        <v>72018</v>
       </c>
       <c r="B286" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="C286">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D286" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>34040</v>
+        <v>72020</v>
       </c>
       <c r="B287" t="s">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="C287">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>21017</v>
+        <v>72021</v>
       </c>
       <c r="B288" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D288" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>73098</v>
+        <v>72030</v>
       </c>
       <c r="B289" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="C289">
         <v>13</v>
@@ -5470,495 +5433,290 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>23102</v>
+        <v>72037</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="C290">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D290" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>33029</v>
+        <v>72038</v>
       </c>
       <c r="B291" t="s">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="C291">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>13049</v>
+        <v>72039</v>
       </c>
       <c r="B292" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="C292">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D292" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>42025</v>
+        <v>72041</v>
       </c>
       <c r="B293" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="C293">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D293" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>34041</v>
+        <v>72042</v>
       </c>
       <c r="B294" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="C294">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>23103</v>
+        <v>72043</v>
       </c>
       <c r="B295" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="C295">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D295" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>42026</v>
+        <v>73001</v>
       </c>
       <c r="B296" t="s">
-        <v>312</v>
+        <v>21</v>
       </c>
       <c r="C296">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>37017</v>
+        <v>73022</v>
       </c>
       <c r="B297" t="s">
-        <v>313</v>
+        <v>114</v>
       </c>
       <c r="C297">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>11050</v>
+        <v>73028</v>
       </c>
       <c r="B298" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>12040</v>
+        <v>73042</v>
       </c>
       <c r="B299" t="s">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="C299">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D299" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>37018</v>
+        <v>73066</v>
       </c>
       <c r="B300" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="C300">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D300" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>11052</v>
+        <v>73098</v>
       </c>
       <c r="B301" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D301" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>45061</v>
+        <v>73107</v>
       </c>
       <c r="B302" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="C302">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>11053</v>
+        <v>73109</v>
       </c>
       <c r="B303" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D303" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>11054</v>
+        <v>73110</v>
       </c>
       <c r="B304" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>23094</v>
+        <v>73111</v>
       </c>
       <c r="B305" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C305">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D305" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>31040</v>
+        <v>99991</v>
       </c>
       <c r="B306" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D306" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>42028</v>
+        <v>99992</v>
       </c>
       <c r="B307" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C307">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D307" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>43018</v>
+        <v>99993</v>
       </c>
       <c r="B308" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C308">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D308" t="s">
-        <v>6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>23096</v>
+        <v>99999</v>
       </c>
       <c r="B309" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C309">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D309" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310">
-        <v>11055</v>
-      </c>
-      <c r="B310" t="s">
-        <v>326</v>
-      </c>
-      <c r="C310">
-        <v>1</v>
-      </c>
-      <c r="D310" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>71066</v>
-      </c>
-      <c r="B311" t="s">
-        <v>327</v>
-      </c>
-      <c r="C311">
-        <v>13</v>
-      </c>
-      <c r="D311" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312">
-        <v>33037</v>
-      </c>
-      <c r="B312" t="s">
-        <v>328</v>
-      </c>
-      <c r="C312">
-        <v>9</v>
-      </c>
-      <c r="D312" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313">
-        <v>41081</v>
-      </c>
-      <c r="B313" t="s">
-        <v>329</v>
-      </c>
-      <c r="C313">
-        <v>5</v>
-      </c>
-      <c r="D313" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>24130</v>
-      </c>
-      <c r="B314" t="s">
-        <v>330</v>
-      </c>
-      <c r="C314">
-        <v>10</v>
-      </c>
-      <c r="D314" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>31042</v>
-      </c>
-      <c r="B315" t="s">
-        <v>331</v>
-      </c>
-      <c r="C315">
-        <v>2</v>
-      </c>
-      <c r="D315" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>44081</v>
-      </c>
-      <c r="B316" t="s">
-        <v>332</v>
-      </c>
-      <c r="C316">
-        <v>5</v>
-      </c>
-      <c r="D316" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317">
-        <v>71067</v>
-      </c>
-      <c r="B317" t="s">
-        <v>333</v>
-      </c>
-      <c r="C317">
-        <v>12</v>
-      </c>
-      <c r="D317" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>45065</v>
-      </c>
-      <c r="B318" t="s">
-        <v>334</v>
-      </c>
-      <c r="C318">
-        <v>5</v>
-      </c>
-      <c r="D318" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319">
-        <v>34042</v>
-      </c>
-      <c r="B319" t="s">
-        <v>335</v>
-      </c>
-      <c r="C319">
-        <v>7</v>
-      </c>
-      <c r="D319" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320">
-        <v>11056</v>
-      </c>
-      <c r="B320" t="s">
-        <v>336</v>
-      </c>
-      <c r="C320">
-        <v>1</v>
-      </c>
-      <c r="D320" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321">
-        <v>99999</v>
-      </c>
-      <c r="B321" t="s">
-        <v>337</v>
-      </c>
-      <c r="C321">
-        <v>99</v>
-      </c>
-      <c r="D321" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>99991</v>
-      </c>
-      <c r="B322" t="s">
-        <v>338</v>
-      </c>
-      <c r="C322">
-        <v>91</v>
-      </c>
-      <c r="D322" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323">
-        <v>99992</v>
-      </c>
-      <c r="B323" t="s">
-        <v>339</v>
-      </c>
-      <c r="C323">
-        <v>92</v>
-      </c>
-      <c r="D323" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>99993</v>
-      </c>
-      <c r="B324" t="s">
-        <v>344</v>
-      </c>
-      <c r="C324">
-        <v>93</v>
-      </c>
-      <c r="D324" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{88E25D3A-2F6F-413F-B975-99A857252EF1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D309">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_logo.xlsx
+++ b/kerntabellen/gemeente_logo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EFA4D3-B6E2-446E-BFEC-A738483B257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E610749A-08D9-4807-8314-5BAAC552A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="327">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -984,12 +984,6 @@
   </si>
   <si>
     <t>Zwevegem</t>
-  </si>
-  <si>
-    <t>Logo onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>Logo onbekend (Brussel)</t>
   </si>
   <si>
     <t>gemeente</t>
@@ -1081,9 +1075,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1121,7 +1115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1227,7 +1221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1369,7 +1363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1379,15 +1373,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E25D3A-2F6F-413F-B975-99A857252EF1}">
   <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267:D267"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="K305" sqref="K305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3056,7 +3050,7 @@
         <v>23106</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C120">
         <v>14</v>
@@ -4862,7 +4856,7 @@
         <v>44086</v>
       </c>
       <c r="B249" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C249">
         <v>5</v>
@@ -4890,7 +4884,7 @@
         <v>44088</v>
       </c>
       <c r="B251" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -5114,7 +5108,7 @@
         <v>46030</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C267">
         <v>15</v>
@@ -5324,7 +5318,7 @@
         <v>71071</v>
       </c>
       <c r="B282" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C282">
         <v>13</v>
@@ -5632,7 +5626,7 @@
         <v>73110</v>
       </c>
       <c r="B304" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C304">
         <v>13</v>
@@ -5646,7 +5640,7 @@
         <v>73111</v>
       </c>
       <c r="B305" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C305">
         <v>13</v>
@@ -5660,13 +5654,13 @@
         <v>99991</v>
       </c>
       <c r="B306" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C306">
         <v>91</v>
       </c>
       <c r="D306" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5674,13 +5668,13 @@
         <v>99992</v>
       </c>
       <c r="B307" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C307">
         <v>92</v>
       </c>
       <c r="D307" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5688,13 +5682,13 @@
         <v>99993</v>
       </c>
       <c r="B308" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C308">
         <v>93</v>
       </c>
       <c r="D308" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5702,13 +5696,13 @@
         <v>99999</v>
       </c>
       <c r="B309" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C309">
         <v>99</v>
       </c>
       <c r="D309" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
